--- a/Tarea 1/Documentos/diccionario de datos.xlsx
+++ b/Tarea 1/Documentos/diccionario de datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Universidad\Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF69158B-ED6A-466C-9AC2-926CF45A4291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E36445E3-0135-4D81-AF53-D334E8EAF4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A70A750-DA8A-45BA-B247-085D45E23E5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="69">
   <si>
     <t>Nombre de la tabla:</t>
   </si>
@@ -119,13 +119,13 @@
     <t>Rut identificador del empleado encargado de las revisiones.</t>
   </si>
   <si>
-    <t>nombre</t>
+    <t>nombre_revisor</t>
   </si>
   <si>
     <t>Nombre y ambos apellidos del encargado de revisión.</t>
   </si>
   <si>
-    <t>correo</t>
+    <t>correo_revisor</t>
   </si>
   <si>
     <t>text@direccion</t>
@@ -146,7 +146,13 @@
     <t>Rut identificador del autor que hizo el articulo.</t>
   </si>
   <si>
+    <t>nombre_autor</t>
+  </si>
+  <si>
     <t>Nombre y ambos apellidos del autor que hizo el articulo.</t>
+  </si>
+  <si>
+    <t>correo_autor</t>
   </si>
   <si>
     <t>Correo electronico del creador del articulo.</t>
@@ -365,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -436,19 +442,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -791,17 +794,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CA2144-64B4-4A75-95F8-443DB3614824}">
-  <dimension ref="A3:H65"/>
+  <dimension ref="A3:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
@@ -811,7 +814,7 @@
     <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -819,16 +822,16 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="30.75" customHeight="1">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="30.75" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>2</v>
       </c>
@@ -851,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -874,7 +877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>15</v>
@@ -895,7 +898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
         <v>18</v>
@@ -916,7 +919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="14"/>
       <c r="B9" s="14" t="s">
         <v>22</v>
@@ -937,17 +940,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" ht="30">
+    </row>
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="23" t="s">
         <v>2</v>
       </c>
@@ -970,7 +972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -993,7 +995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -1014,7 +1016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="16"/>
       <c r="B16" s="16" t="s">
         <v>29</v>
@@ -1042,10 +1044,10 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
@@ -1099,7 +1101,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>16</v>
@@ -1114,13 +1116,13 @@
         <v>13</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>16</v>
@@ -1135,16 +1137,16 @@
         <v>31</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30">
@@ -1175,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>11</v>
@@ -1190,13 +1192,13 @@
         <v>13</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>16</v>
@@ -1211,13 +1213,13 @@
         <v>13</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>16</v>
@@ -1232,16 +1234,16 @@
         <v>13</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30">
@@ -1272,10 +1274,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>12</v>
@@ -1287,12 +1289,12 @@
         <v>13</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>25</v>
@@ -1315,7 +1317,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>10</v>
@@ -1339,168 +1341,191 @@
     <row r="38" spans="1:7">
       <c r="G38" s="5"/>
     </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="40" spans="1:7" ht="29.25">
-      <c r="A40" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="29.25">
-      <c r="A41" s="3" t="s">
+      <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="22" customFormat="1" ht="43.5">
-      <c r="A42" s="19" t="s">
+    <row r="41" spans="1:7" s="22" customFormat="1" ht="43.5">
+      <c r="A41" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B41" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>52</v>
+      <c r="B42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="4">
+        <v>9</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="29.25">
+      <c r="A47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="43.5">
+      <c r="A48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="4">
-        <v>9</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="D48" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D49" s="4">
         <v>10</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="29.25">
-      <c r="A48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="43.5">
-      <c r="A49" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>55</v>
+      <c r="E49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>11</v>
@@ -1515,221 +1540,198 @@
         <v>13</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="29.25">
+      <c r="A54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="D55" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D56" s="4">
         <v>10</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="29.25">
-      <c r="A55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="19" t="s">
+      <c r="E56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="12">
         <v>9</v>
       </c>
-      <c r="B56" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="4">
-        <v>10</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>55</v>
+      <c r="E57" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="12" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="12">
-        <v>9</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>35</v>
+      <c r="D58" s="14">
+        <v>100</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="14"/>
       <c r="B59" s="14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="14">
-        <v>100</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="14"/>
       <c r="B60" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="14">
+        <v>128</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="14">
-        <v>50</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="G60" s="15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="14">
-        <v>50</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7">
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7">
-      <c r="G63" s="5"/>
-    </row>
-    <row r="65" spans="6:6">
-      <c r="F65" s="28"/>
+    <row r="64" spans="1:7">
+      <c r="F64" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{90C707A9-6785-4053-B6DE-3C9A7186ADF8}"/>
     <hyperlink ref="E23" r:id="rId2" xr:uid="{DFCA99C8-B1AC-46E2-8B5C-18A022520079}"/>
     <hyperlink ref="E30" r:id="rId3" display="text@direccion" xr:uid="{8ED38C62-BBAF-4E46-B4C9-FD83722E0CB8}"/>
-    <hyperlink ref="E59" r:id="rId4" xr:uid="{5D616C68-9DBC-4BBE-A53E-616F7837821A}"/>
+    <hyperlink ref="E58" r:id="rId4" xr:uid="{5D616C68-9DBC-4BBE-A53E-616F7837821A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
